--- a/data_tes_fuzzy_lab_hsv.xlsx
+++ b/data_tes_fuzzy_lab_hsv.xlsx
@@ -95,8 +95,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,76 +105,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +180,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -229,14 +220,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,8 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,37 +459,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,174 +522,185 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,19 +1057,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.60185185185185" customWidth="1"/>
     <col min="2" max="2" width="12.3796296296296" customWidth="1"/>
     <col min="3" max="3" width="13.712962962963" customWidth="1"/>
     <col min="4" max="4" width="8.49074074074074" customWidth="1"/>
     <col min="5" max="5" width="11.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1242,7 +1243,7 @@
         <v>8.94390243902439</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1257,6 +1258,10 @@
       </c>
       <c r="E11">
         <v>8.94200027312229</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(E11:E12)</f>
+        <v>8.17510166545651</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1412,7 +1417,7 @@
         <v>4.03741405896501</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1427,6 +1432,10 @@
       </c>
       <c r="E21">
         <v>3.83321197805191</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(E21:E22)</f>
+        <v>2.44532567558484</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1601,7 +1610,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E31">
-    <sortState ref="A2:E31">
+    <sortState ref="A1:E31">
       <sortCondition ref="C1"/>
     </sortState>
     <extLst/>
